--- a/data/evaluation/evaluation_South_Summer_Watermelons.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Watermelons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7206.391935583782</v>
+        <v>7256.268092009654</v>
       </c>
       <c r="C4" t="n">
-        <v>91309596.79105133</v>
+        <v>93081170.60390311</v>
       </c>
       <c r="D4" t="n">
-        <v>9555.605516713806</v>
+        <v>9647.858342860509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08939356306742674</v>
+        <v>0.07172612641040577</v>
       </c>
     </row>
     <row r="5">
